--- a/LampGame/LampGame/stagedata/Stage5.xlsx
+++ b/LampGame/LampGame/stagedata/Stage5.xlsx
@@ -50,7 +50,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -73,17 +73,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -137,6 +154,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -181,33 +225,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -537,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CV10" sqref="A1:CV10"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CE13" sqref="CE13:CK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -904,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="1">
         <v>0</v>
@@ -1030,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BK2" s="1">
         <v>0</v>
       </c>
       <c r="BL2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM2" s="1">
         <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BO2" s="1">
         <v>0</v>
@@ -1206,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X3" s="1">
         <v>0</v>
@@ -1269,13 +1286,13 @@
         <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="1">
         <v>0</v>
@@ -1296,13 +1313,13 @@
         <v>0</v>
       </c>
       <c r="AX3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA3" s="1">
         <v>0</v>
@@ -1350,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="BP3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BQ3" s="1">
         <v>0</v>
@@ -1508,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="1">
         <v>0</v>
@@ -1571,40 +1588,40 @@
         <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY4" s="1">
         <v>8</v>
       </c>
-      <c r="AQ4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="1">
-        <v>0</v>
-      </c>
       <c r="AZ4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA4" s="1">
         <v>0</v>
@@ -1809,20 +1826,20 @@
       <c r="S5" s="1">
         <v>0</v>
       </c>
-      <c r="T5" s="1">
-        <v>1</v>
+      <c r="T5" s="2">
+        <v>5</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1873,13 +1890,13 @@
         <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="1">
         <v>0</v>
@@ -1900,13 +1917,13 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA5" s="1">
         <v>0</v>
@@ -1929,25 +1946,25 @@
       <c r="BG5" s="1">
         <v>0</v>
       </c>
-      <c r="BH5" s="1">
+      <c r="BH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="1">
         <v>6</v>
       </c>
-      <c r="BI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK5" s="1">
-        <v>8</v>
-      </c>
       <c r="BL5" s="1">
         <v>0</v>
       </c>
       <c r="BM5" s="1">
         <v>0</v>
       </c>
-      <c r="BN5" s="1">
+      <c r="BN5" s="3">
         <v>0</v>
       </c>
       <c r="BO5" s="1">
@@ -2118,22 +2135,22 @@
         <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB6" s="1">
         <v>0</v>
@@ -2178,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ6" s="1">
         <v>0</v>
@@ -2244,13 +2261,13 @@
         <v>1</v>
       </c>
       <c r="BL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM6" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN6" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BN6" s="3">
+        <v>0</v>
       </c>
       <c r="BO6" s="1">
         <v>1</v>
@@ -2259,10 +2276,10 @@
         <v>1</v>
       </c>
       <c r="BQ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>1</v>
@@ -2426,16 +2443,16 @@
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="1">
         <v>0</v>
@@ -2480,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7" s="1">
         <v>0</v>
@@ -2540,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BK7" s="1">
         <v>0</v>
       </c>
-      <c r="BL7" s="1">
+      <c r="BL7" s="2">
         <v>0</v>
       </c>
       <c r="BM7" s="1">
         <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BO7" s="1">
         <v>0</v>
@@ -2591,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="CA7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CB7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CD7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CE7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CF7" s="1">
         <v>0</v>
@@ -2754,8 +2771,8 @@
       <c r="AF8" s="1">
         <v>0</v>
       </c>
-      <c r="AG8" s="1">
-        <v>3</v>
+      <c r="AG8" s="2">
+        <v>0</v>
       </c>
       <c r="AH8" s="1">
         <v>0</v>
@@ -2779,19 +2796,19 @@
         <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8" s="1">
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -2842,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BK8" s="1">
         <v>0</v>
@@ -2851,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="BM8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BN8" s="1">
         <v>0</v>
@@ -2893,19 +2910,19 @@
         <v>0</v>
       </c>
       <c r="CA8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CB8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CC8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CD8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CE8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CF8" s="1">
         <v>0</v>
@@ -3039,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB9" s="1">
         <v>0</v>
@@ -3078,19 +3095,19 @@
         <v>0</v>
       </c>
       <c r="AN9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9" s="1">
         <v>0</v>
@@ -3138,24 +3155,24 @@
         <v>0</v>
       </c>
       <c r="BH9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI9" s="1">
         <v>0</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5</v>
-      </c>
-      <c r="BK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="2">
         <v>0</v>
       </c>
       <c r="BL9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM9" s="1">
         <v>0</v>
       </c>
-      <c r="BN9" s="1">
+      <c r="BN9" s="2">
         <v>0</v>
       </c>
       <c r="BO9" s="1">
@@ -3164,17 +3181,14 @@
       <c r="BP9" s="1">
         <v>0</v>
       </c>
-      <c r="BQ9" s="1">
-        <v>0</v>
-      </c>
       <c r="BR9" s="1">
         <v>0</v>
       </c>
-      <c r="BS9" s="1">
+      <c r="BS9" s="2">
         <v>0</v>
       </c>
       <c r="BT9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU9" s="1">
         <v>0</v>
@@ -3195,19 +3209,19 @@
         <v>0</v>
       </c>
       <c r="CA9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CB9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CC9" s="1">
         <v>6</v>
       </c>
       <c r="CD9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CE9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CF9" s="1">
         <v>0</v>
@@ -3219,7 +3233,7 @@
         <v>3</v>
       </c>
       <c r="CI9" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CJ9" s="1">
         <v>0</v>
@@ -3359,10 +3373,10 @@
         <v>5</v>
       </c>
       <c r="AG10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI10" s="1">
         <v>1</v>
@@ -3452,10 +3466,10 @@
         <v>1</v>
       </c>
       <c r="BL10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>1</v>
@@ -3565,58 +3579,58 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="BL4:CV6 BL1:CO3 A1:BK6 A7:CV10">
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+  <conditionalFormatting sqref="A1:CO1 A2:W4 A5:Z6 BA5:BJ5 BA4:CV4 AA5:AL5 X3:AL4 BA3:CO3 AA6:CV6 X2:CO2 BL5:CV5 BK5:BK8 A7:CV8 AM3:AZ5 A10:CV10 A9:BP9 BR9:CV9">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC4:BH4 BL2:CV3 BK2:BK9 BJ2:BJ5 BC2:BI3 AZ1:CV1 CN4:CO9">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+  <conditionalFormatting sqref="BC4:BH4 BL3:CV3 BJ3:BJ5 BC2:BI3 AZ1:CV1 CN4:CO9 BI7:BJ9 BH5 BM2:CV2">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI4">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:CV10">
+  <conditionalFormatting sqref="A1:CV8 A10:CV10 A9:BP9 BR9:CV9">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>8</formula>
     </cfRule>

--- a/LampGame/LampGame/stagedata/Stage5.xlsx
+++ b/LampGame/LampGame/stagedata/Stage5.xlsx
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CE13" sqref="CE13:CK13"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BR14" sqref="BR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2714,8 +2714,8 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="1">
-        <v>3</v>
+      <c r="N8" s="2">
+        <v>0</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -3179,6 +3179,9 @@
         <v>0</v>
       </c>
       <c r="BP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="2">
         <v>0</v>
       </c>
       <c r="BR9" s="1">
@@ -3579,7 +3582,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:CO1 A2:W4 A5:Z6 BA5:BJ5 BA4:CV4 AA5:AL5 X3:AL4 BA3:CO3 AA6:CV6 X2:CO2 BL5:CV5 BK5:BK8 A7:CV8 AM3:AZ5 A10:CV10 A9:BP9 BR9:CV9">
+  <conditionalFormatting sqref="A1:CO1 A2:W4 A5:Z6 BA5:BJ5 BA4:CV4 AA5:AL5 X3:AL4 BA3:CO3 AA6:CV6 X2:CO2 BL5:CV5 BK5:BK8 AM3:AZ5 A7:CV10">
     <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -3630,7 +3633,7 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:CV8 A10:CV10 A9:BP9 BR9:CV9">
+  <conditionalFormatting sqref="A1:CV10">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>8</formula>
     </cfRule>

--- a/LampGame/LampGame/stagedata/Stage5.xlsx
+++ b/LampGame/LampGame/stagedata/Stage5.xlsx
@@ -90,7 +90,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -98,9 +98,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BR14" sqref="BR14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA1:AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -640,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="AA1" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB1" s="1">
         <v>0</v>
@@ -658,31 +655,31 @@
         <v>0</v>
       </c>
       <c r="AG1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP1" s="1">
         <v>0</v>
@@ -829,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="CL1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CM1" s="1">
         <v>0</v>
@@ -838,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="CO1" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP1" s="1">
         <v>0</v>
       </c>
       <c r="CQ1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CR1" s="1">
         <v>0</v>
@@ -921,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" s="1">
         <v>0</v>
@@ -942,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB2" s="1">
         <v>0</v>
@@ -963,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="AH2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" s="1">
         <v>0</v>
@@ -978,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="AM2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2" s="1">
         <v>0</v>
@@ -1047,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BL2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BM2" s="1">
         <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BO2" s="1">
         <v>0</v>
@@ -1131,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="CL2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CM2" s="1">
         <v>0</v>
@@ -1140,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="CO2" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP2" s="1">
         <v>0</v>
@@ -1149,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="CR2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CS2" s="1">
         <v>0</v>
@@ -1223,226 +1220,226 @@
         <v>0</v>
       </c>
       <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="1">
+        <v>4</v>
+      </c>
+      <c r="CM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="1">
         <v>6</v>
       </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>8</v>
-      </c>
-      <c r="X3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="1">
-        <v>5</v>
-      </c>
-      <c r="AY3" s="1">
-        <v>5</v>
-      </c>
-      <c r="AZ3" s="1">
-        <v>5</v>
-      </c>
-      <c r="BA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP3" s="1">
-        <v>5</v>
-      </c>
-      <c r="BQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN3" s="1">
-        <v>0</v>
-      </c>
       <c r="CO3" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP3" s="1">
         <v>0</v>
@@ -1525,16 +1522,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
         <v>0</v>
@@ -1546,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB4" s="1">
         <v>0</v>
@@ -1570,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ4" s="1">
         <v>0</v>
@@ -1582,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN4" s="1">
         <v>0</v>
@@ -1615,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="1">
         <v>0</v>
@@ -1651,13 +1648,13 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BK4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BL4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM4" s="1">
         <v>0</v>
@@ -1672,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="BQ4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BR4" s="1">
         <v>0</v>
@@ -1690,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="BW4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX4" s="1">
         <v>0</v>
       </c>
       <c r="BY4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ4" s="1">
         <v>0</v>
@@ -1711,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="CD4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE4" s="1">
         <v>0</v>
@@ -1735,31 +1732,31 @@
         <v>0</v>
       </c>
       <c r="CL4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CM4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO4" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CP4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ4" s="1">
         <v>0</v>
       </c>
       <c r="CR4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CS4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CT4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CU4" s="1">
         <v>0</v>
@@ -1812,109 +1809,109 @@
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX5" s="1">
         <v>5</v>
@@ -1926,64 +1923,64 @@
         <v>5</v>
       </c>
       <c r="BA5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BE5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>1</v>
       </c>
       <c r="BI5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ5" s="1">
         <v>1</v>
       </c>
       <c r="BK5" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>1</v>
       </c>
       <c r="BO5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR5" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU5" s="1">
         <v>0</v>
@@ -1992,34 +1989,34 @@
         <v>0</v>
       </c>
       <c r="BW5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX5" s="1">
         <v>0</v>
       </c>
       <c r="BY5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG5" s="1">
         <v>0</v>
@@ -2046,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="CO5" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ5" s="1">
         <v>0</v>
@@ -2111,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -2129,59 +2126,59 @@
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
       </c>
       <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1">
         <v>6</v>
       </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>0</v>
-      </c>
       <c r="AL6" s="1">
         <v>0</v>
       </c>
@@ -2195,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="1">
         <v>0</v>
@@ -2213,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="AV6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW6" s="1">
         <v>0</v>
@@ -2237,28 +2234,28 @@
         <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="1">
         <v>0</v>
@@ -2266,23 +2263,23 @@
       <c r="BM6" s="1">
         <v>0</v>
       </c>
-      <c r="BN6" s="3">
+      <c r="BN6" s="1">
         <v>0</v>
       </c>
       <c r="BO6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BQ6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BR6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="1">
         <v>0</v>
@@ -2324,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="CG6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CH6" s="1">
         <v>0</v>
@@ -2348,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="CO6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ6" s="1">
         <v>0</v>
@@ -2410,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -2431,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U7" s="1">
         <v>0</v>
@@ -2443,16 +2440,16 @@
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="1">
         <v>0</v>
@@ -2482,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -2497,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="1">
         <v>0</v>
@@ -2515,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="AV7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX7" s="1">
         <v>0</v>
@@ -2536,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="BC7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>0</v>
@@ -2562,32 +2559,32 @@
       <c r="BK7" s="1">
         <v>0</v>
       </c>
-      <c r="BL7" s="2">
+      <c r="BL7" s="1">
         <v>0</v>
       </c>
       <c r="BM7" s="1">
         <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BO7" s="1">
         <v>0</v>
       </c>
       <c r="BP7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BQ7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BR7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BS7" s="1">
         <v>0</v>
       </c>
       <c r="BT7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BU7" s="1">
         <v>0</v>
@@ -2626,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="CG7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CH7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CI7" s="1">
         <v>0</v>
@@ -2650,22 +2647,22 @@
         <v>0</v>
       </c>
       <c r="CO7" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CR7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CS7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CT7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CU7" s="1">
         <v>0</v>
@@ -2709,13 +2706,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -2724,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -2733,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -2771,7 +2768,7 @@
       <c r="AF8" s="1">
         <v>0</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AG8" s="1">
         <v>0</v>
       </c>
       <c r="AH8" s="1">
@@ -2796,18 +2793,18 @@
         <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="1">
         <v>0</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AS8" s="2">
         <v>0</v>
       </c>
       <c r="AT8" s="1">
@@ -2817,13 +2814,13 @@
         <v>0</v>
       </c>
       <c r="AV8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY8" s="1">
         <v>0</v>
@@ -2835,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="BB8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="1">
         <v>0</v>
@@ -2868,22 +2865,22 @@
         <v>0</v>
       </c>
       <c r="BM8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BQ8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BR8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BS8" s="1">
         <v>0</v>
@@ -2892,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="BU8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BV8" s="1">
         <v>0</v>
@@ -2913,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="CB8" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CC8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CD8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CE8" s="1">
         <v>0</v>
@@ -2928,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="CG8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CH8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CI8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CJ8" s="1">
         <v>0</v>
@@ -2952,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="CO8" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP8" s="1">
         <v>0</v>
@@ -2961,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="CR8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CS8" s="1">
         <v>0</v>
@@ -3008,68 +3005,68 @@
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N9" s="1">
+        <v>4</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>7</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
         <v>3</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <v>5</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>0</v>
-      </c>
       <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
         <v>3</v>
       </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>0</v>
-      </c>
       <c r="AF9" s="1">
         <v>0</v>
       </c>
@@ -3095,22 +3092,22 @@
         <v>0</v>
       </c>
       <c r="AN9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -3119,22 +3116,22 @@
         <v>0</v>
       </c>
       <c r="AV9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ9" s="1">
         <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="1">
         <v>0</v>
@@ -3155,50 +3152,50 @@
         <v>0</v>
       </c>
       <c r="BH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="1">
         <v>3</v>
       </c>
-      <c r="BI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="1">
-        <v>5</v>
-      </c>
-      <c r="BM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="1">
-        <v>3</v>
-      </c>
-      <c r="BU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="1">
-        <v>5</v>
-      </c>
       <c r="BW9" s="1">
         <v>0</v>
       </c>
@@ -3206,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="BY9" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BZ9" s="1">
         <v>0</v>
@@ -3215,13 +3212,13 @@
         <v>0</v>
       </c>
       <c r="CB9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CD9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CE9" s="1">
         <v>0</v>
@@ -3230,16 +3227,16 @@
         <v>0</v>
       </c>
       <c r="CG9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CH9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CI9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CJ9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CK9" s="1">
         <v>0</v>
@@ -3254,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="CO9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP9" s="1">
         <v>0</v>
@@ -3352,49 +3349,49 @@
         <v>1</v>
       </c>
       <c r="Y10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AM10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AN10" s="1">
         <v>1</v>
@@ -3442,10 +3439,10 @@
         <v>1</v>
       </c>
       <c r="BC10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="1">
         <v>1</v>
@@ -3466,34 +3463,34 @@
         <v>1</v>
       </c>
       <c r="BK10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BL10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BN10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BO10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BP10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BQ10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BR10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BS10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU10" s="1">
         <v>1</v>
@@ -3541,19 +3538,19 @@
         <v>1</v>
       </c>
       <c r="CJ10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CK10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO10" s="1">
         <v>1</v>
@@ -3582,7 +3579,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:CO1 A2:W4 A5:Z6 BA5:BJ5 BA4:CV4 AA5:AL5 X3:AL4 BA3:CO3 AA6:CV6 X2:CO2 BL5:CV5 BK5:BK8 AM3:AZ5 A7:CV10">
+  <conditionalFormatting sqref="A1:CO2 A3:CV10 AA1:AA3">
     <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -3602,7 +3599,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC4:BH4 BL3:CV3 BJ3:BJ5 BC2:BI3 AZ1:CV1 CN4:CO9 BI7:BJ9 BH5 BM2:CV2">
+  <conditionalFormatting sqref="BJ2:BJ5 CN4:CO9 BE1:CV1 BG3:BH4 BL5:BX5 CI7:CM7 BK4:BK9 BL3:BR3 BL3:BL4 BF2:CV2 BI3:BJ3">
     <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>

--- a/LampGame/LampGame/stagedata/Stage5.xlsx
+++ b/LampGame/LampGame/stagedata/Stage5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\Lamp_game\LampGame\LampGame\stagedata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\ランカゲ\LampGame\LampGame\stagedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BR14" sqref="BR14"/>
+      <selection activeCell="CD8" sqref="CD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="CB7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CC7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CD7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CE7" s="1">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>5</v>
       </c>
       <c r="CC8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CD8" s="1">
         <v>5</v>
